--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9_3.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9_3.xlsx
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3749cf78-52c9-4eea-87df-f9d92ce032e9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6a50b537-6c3e-4f25-b1f5-e57c69acab8b}">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11f68bd1-a211-4f47-8973-c08d0c649ea7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804d0366-6e82-4e88-8229-b5ac3fc5bf49}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
